--- a/empirical_settings_BAU2.xlsx
+++ b/empirical_settings_BAU2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382711AF-864F-D14E-9870-2823C225CCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F4E81D-122C-564F-BB88-18A6A469B07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -735,11 +735,11 @@
         <v>1960</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D9" si="0">C2-B2</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>35</v>
@@ -780,14 +780,14 @@
         <v>63</v>
       </c>
       <c r="B3">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="C3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -828,11 +828,11 @@
         <v>1960</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>53</v>
@@ -873,14 +873,14 @@
         <v>66</v>
       </c>
       <c r="B5">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -921,14 +921,14 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -969,14 +969,14 @@
         <v>65</v>
       </c>
       <c r="B7">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -1017,14 +1017,14 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>57</v>
@@ -1062,14 +1062,14 @@
         <v>55</v>
       </c>
       <c r="B9">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="C9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>56</v>

--- a/empirical_settings_BAU2.xlsx
+++ b/empirical_settings_BAU2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F4E81D-122C-564F-BB88-18A6A469B07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586336E-6385-41E0-8103-FC3A42C26B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>year_min</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Pollution proportion</t>
   </si>
   <si>
-    <t>Pollution_proportion</t>
-  </si>
-  <si>
     <t>Service per capita proportion</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>fpc</t>
   </si>
   <si>
-    <t>sopc</t>
-  </si>
-  <si>
-    <t>sopcp</t>
-  </si>
-  <si>
     <t>io</t>
   </si>
   <si>
@@ -229,17 +220,23 @@
     <t>IPP_p</t>
   </si>
   <si>
-    <t>Fossil_fuel_consumption_p</t>
-  </si>
-  <si>
     <t>Expected_years_of_schooling_p</t>
+  </si>
+  <si>
+    <t>Pollution_CO2_dt</t>
+  </si>
+  <si>
+    <t>spc</t>
+  </si>
+  <si>
+    <t>Fossil_fuel_consumption_TWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +258,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -317,6 +319,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,28 +664,28 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="8.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="43.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="8.6328125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.453125" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="43.453125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -691,13 +696,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -712,22 +717,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -742,10 +747,10 @@
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -760,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -775,9 +780,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1970</v>
@@ -790,10 +795,10 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -802,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -820,9 +825,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B4">
         <v>1960</v>
@@ -835,10 +840,10 @@
         <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -868,9 +873,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1995</v>
@@ -883,13 +888,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -898,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -916,9 +921,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>1990</v>
@@ -931,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -946,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -964,7 +969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -979,10 +984,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -1012,9 +1017,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>1995</v>
@@ -1027,10 +1032,10 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1039,10 +1044,10 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1057,9 +1062,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1965</v>
@@ -1072,10 +1077,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1084,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1104,7 +1109,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1116,13 +1121,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1154,9 +1159,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1919</v>
@@ -1165,13 +1170,13 @@
         <v>2021</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1180,10 +1185,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1195,9 +1200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1920</v>
@@ -1206,13 +1211,13 @@
         <v>2021</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1221,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1236,10 +1241,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1250,10 +1255,10 @@
         <v>2020</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1268,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1283,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1294,10 +1299,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1312,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1327,28 +1332,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
